--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -852,7 +852,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">C:\Users\COCO\onnxruntime_training_cuda_python\orttraining\orttraining\python\orttraining_pybind_state.cc:621 onnxruntime::python::addObjectMethodsForTraining::&lt;lambda_6dd399ad6691adab5d0e0423ed8ce22d&gt;::operator () [ONNXRuntimeError] : 1 : FAIL : Type Error: Type parameter (T) of Optype (Sub) bound to different types (tensor(float) and tensor(double) in node (onnx::Pow::1075_Grad/Sub_1).
+          <t xml:space="preserve">C:\Users\COCO\onnxruntime_training_cuda_python\orttraining\orttraining\python\orttraining_pybind_state.cc:621 onnxruntime::python::addObjectMethodsForTraining::&lt;lambda_6dd399ad6691adab5d0e0423ed8ce22d&gt;::operator () [ONNXRuntimeError] : 1 : FAIL : Type Error: Type parameter (T) of Optype (Sub) bound to different types (tensor(float) and tensor(double) in node (onnx::Pow::25040_Grad/Sub_1).
 </t>
         </is>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1254): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25219): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1256): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25221): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1288): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25253): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1290): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25255): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1308): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25273): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1310): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25275): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::1399): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::25364): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -852,7 +852,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">C:\Users\COCO\onnxruntime_training_cuda_python\orttraining\orttraining\python\orttraining_pybind_state.cc:621 onnxruntime::python::addObjectMethodsForTraining::&lt;lambda_6dd399ad6691adab5d0e0423ed8ce22d&gt;::operator () [ONNXRuntimeError] : 1 : FAIL : Type Error: Type parameter (T) of Optype (Sub) bound to different types (tensor(float) and tensor(double) in node (onnx::Pow::25040_Grad/Sub_1).
+          <t xml:space="preserve">C:\Users\COCO\onnxruntime_training_cuda_python\orttraining\orttraining\python\orttraining_pybind_state.cc:621 onnxruntime::python::addObjectMethodsForTraining::&lt;lambda_6dd399ad6691adab5d0e0423ed8ce22d&gt;::operator () [ONNXRuntimeError] : 1 : FAIL : Type Error: Type parameter (T) of Optype (Sub) bound to different types (tensor(float) and tensor(double) in node (onnx::Pow::28411_Grad/Sub_1).
 </t>
         </is>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25219): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28590): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25221): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28592): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25253): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28624): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25255): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28626): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25273): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28644): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::25275): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28646): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::25364): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::28735): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -852,7 +852,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">C:\Users\COCO\onnxruntime_training_cuda_python\orttraining\orttraining\python\orttraining_pybind_state.cc:621 onnxruntime::python::addObjectMethodsForTraining::&lt;lambda_6dd399ad6691adab5d0e0423ed8ce22d&gt;::operator () [ONNXRuntimeError] : 1 : FAIL : Type Error: Type parameter (T) of Optype (Sub) bound to different types (tensor(float) and tensor(double) in node (onnx::Pow::28411_Grad/Sub_1).
+          <t xml:space="preserve">C:\Users\COCO\onnxruntime_training_cuda_python\orttraining\orttraining\python\orttraining_pybind_state.cc:621 onnxruntime::python::addObjectMethodsForTraining::&lt;lambda_6dd399ad6691adab5d0e0423ed8ce22d&gt;::operator () [ONNXRuntimeError] : 1 : FAIL : Type Error: Type parameter (T) of Optype (Sub) bound to different types (tensor(float) and tensor(double) in node (onnx::Pow::33353_Grad/Sub_1).
 </t>
         </is>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28590): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33532): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28592): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33534): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28624): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33566): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28626): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33568): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28644): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33586): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::28646): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33588): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::28735): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::33677): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_20/NVIDIA - CUDA/training_CUDAExecutionProvider.xlsx
@@ -852,7 +852,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">C:\Users\COCO\onnxruntime_training_cuda_python\orttraining\orttraining\python\orttraining_pybind_state.cc:621 onnxruntime::python::addObjectMethodsForTraining::&lt;lambda_6dd399ad6691adab5d0e0423ed8ce22d&gt;::operator () [ONNXRuntimeError] : 1 : FAIL : Type Error: Type parameter (T) of Optype (Sub) bound to different types (tensor(float) and tensor(double) in node (onnx::Pow::33353_Grad/Sub_1).
+          <t xml:space="preserve">C:\Users\COCO\onnxruntime_training_cuda_python\orttraining\orttraining\python\orttraining_pybind_state.cc:621 onnxruntime::python::addObjectMethodsForTraining::&lt;lambda_6dd399ad6691adab5d0e0423ed8ce22d&gt;::operator () [ONNXRuntimeError] : 1 : FAIL : Type Error: Type parameter (T) of Optype (Sub) bound to different types (tensor(float) and tensor(double) in node (onnx::Pow::1075_Grad/Sub_1).
 </t>
         </is>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33532): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1254): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33534): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1256): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33566): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1288): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33568): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1290): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33586): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1308): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::33588): A typestr: T, has unsupported type: tensor(bool)</t>
+          <t>[ShapeInferenceError] (op_type:Sub, node name: onnx::Sub::1310): A typestr: T, has unsupported type: tensor(bool)</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::33677): X typestr: T, has unsupported type: tensor(uint8)</t>
+          <t>[ShapeInferenceError] (op_type:Pow, node name: onnx::Pow::1399): X typestr: T, has unsupported type: tensor(uint8)</t>
         </is>
       </c>
     </row>
